--- a/DB_reports/report.xlsx
+++ b/DB_reports/report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="22035" windowHeight="11565"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="22035" windowHeight="11565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="190">
   <si>
     <t>Folder</t>
   </si>
@@ -547,6 +547,45 @@
   </si>
   <si>
     <t>SimulationId = 833</t>
+  </si>
+  <si>
+    <t>Journeys</t>
+  </si>
+  <si>
+    <t>SimulationId</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>SimName</t>
+  </si>
+  <si>
+    <t>/****** Script for SelectTopNRows command from SSMS  ******/</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(j.ID) AS Journeys, p.SimulationId, p.ProjectName, p.SimName</t>
+  </si>
+  <si>
+    <t>FROM [Adsimulo_Visualisation].[dbo].[AVJourneys] j, [Adsimulo_Visualisation].[dbo].[AVSims] s, [Adsimulo_Visualisation].[dbo].[AVLiftGroups] g, [Adsimulo_Visualisation].[dbo].[AVProjects] p</t>
+  </si>
+  <si>
+    <t>WHERE j.SimID = s.ID AND s.LiftGroupId = g.ID AND g.ProjectId = p.ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUP BY p.ProjectName, p.SimName, p.SimulationId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORDER BY p.SimulationId </t>
+  </si>
+  <si>
+    <t>SELECT COUNT(pass.ID) AS Passengers, p.SimulationId, p.ProjectName, p.SimName</t>
+  </si>
+  <si>
+    <t>FROM [Adsimulo_Visualisation].[dbo].[AVPassengers]pass, [Adsimulo_Visualisation].[dbo].[AVSims] s, [Adsimulo_Visualisation].[dbo].[AVLiftGroups] g, [Adsimulo_Visualisation].[dbo].[AVProjects] p</t>
+  </si>
+  <si>
+    <t>WHERE pass.SimID = s.ID AND s.LiftGroupId = g.ID AND g.ProjectId = p.ID</t>
   </si>
 </sst>
 </file>
@@ -889,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2089,12 +2128,675 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1">
+        <v>7430</v>
+      </c>
+      <c r="B1">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>10293</v>
+      </c>
+      <c r="B2">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9467</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>7855</v>
+      </c>
+      <c r="B3">
+        <v>321</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>2550</v>
+      </c>
+      <c r="K3">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>23964</v>
+      </c>
+      <c r="B4">
+        <v>348</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4">
+        <v>6218</v>
+      </c>
+      <c r="K4">
+        <v>321</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>2700</v>
+      </c>
+      <c r="B5">
+        <v>472</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>8791</v>
+      </c>
+      <c r="K5">
+        <v>348</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>676</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>1509</v>
+      </c>
+      <c r="K6">
+        <v>472</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>19157</v>
+      </c>
+      <c r="B7">
+        <v>786</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>73</v>
+      </c>
+      <c r="K7">
+        <v>676</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>696</v>
+      </c>
+      <c r="B8">
+        <v>795</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>10016</v>
+      </c>
+      <c r="K8">
+        <v>786</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>756</v>
+      </c>
+      <c r="B9">
+        <v>798</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>633</v>
+      </c>
+      <c r="K9">
+        <v>795</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>1925</v>
+      </c>
+      <c r="B10">
+        <v>799</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>338</v>
+      </c>
+      <c r="K10">
+        <v>798</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>5460</v>
+      </c>
+      <c r="B11">
+        <v>808</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <v>941</v>
+      </c>
+      <c r="K11">
+        <v>799</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>925</v>
+      </c>
+      <c r="B12">
+        <v>809</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12">
+        <v>653</v>
+      </c>
+      <c r="K12">
+        <v>808</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>726</v>
+      </c>
+      <c r="B13">
+        <v>816</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13">
+        <v>458</v>
+      </c>
+      <c r="K13">
+        <v>809</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>1732</v>
+      </c>
+      <c r="B14">
+        <v>817</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14">
+        <v>484</v>
+      </c>
+      <c r="K14">
+        <v>816</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>1732</v>
+      </c>
+      <c r="B15">
+        <v>818</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>1043</v>
+      </c>
+      <c r="K15">
+        <v>817</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>5460</v>
+      </c>
+      <c r="B16">
+        <v>825</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16">
+        <v>1239</v>
+      </c>
+      <c r="K16">
+        <v>818</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>21258</v>
+      </c>
+      <c r="B17">
+        <v>826</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>653</v>
+      </c>
+      <c r="K17">
+        <v>825</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>2304</v>
+      </c>
+      <c r="B18">
+        <v>827</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18">
+        <v>8096</v>
+      </c>
+      <c r="K18">
+        <v>826</v>
+      </c>
+      <c r="L18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>900</v>
+      </c>
+      <c r="B19">
+        <v>828</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19">
+        <v>409</v>
+      </c>
+      <c r="K19">
+        <v>827</v>
+      </c>
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>24300</v>
+      </c>
+      <c r="B20">
+        <v>829</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20">
+        <v>847</v>
+      </c>
+      <c r="K20">
+        <v>828</v>
+      </c>
+      <c r="L20" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>660</v>
+      </c>
+      <c r="B21">
+        <v>831</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <v>6723</v>
+      </c>
+      <c r="K21">
+        <v>829</v>
+      </c>
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>2844</v>
+      </c>
+      <c r="B22">
+        <v>832</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22">
+        <v>859</v>
+      </c>
+      <c r="K22">
+        <v>831</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>2808</v>
+      </c>
+      <c r="B23">
+        <v>833</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>1853</v>
+      </c>
+      <c r="K23">
+        <v>832</v>
+      </c>
+      <c r="L23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="J24">
+        <v>1850</v>
+      </c>
+      <c r="K24">
+        <v>833</v>
+      </c>
+      <c r="L24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>185</v>
+      </c>
+      <c r="J30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
